--- a/Industry.xlsx
+++ b/Industry.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Imam\Development\webscraping_linkedin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Imam\Development\data_profession_indonesia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ABCA96F-E1E0-4D3D-98B9-17065AA303D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B30B211-DB10-4274-B2D7-E0556FE9BC07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{88F43BB2-8712-4D7F-9FE8-5D557E4F8C51}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,10 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
-  <si>
-    <t>Advertising</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Banking</t>
   </si>
@@ -48,12 +45,6 @@
     <t>Consumer Services</t>
   </si>
   <si>
-    <t>Environmental Services</t>
-  </si>
-  <si>
-    <t>Food and Beverage</t>
-  </si>
-  <si>
     <t>IT Services and IT Consulting</t>
   </si>
   <si>
@@ -66,58 +57,115 @@
     <t>Telecommunications</t>
   </si>
   <si>
-    <t>Information Services</t>
-  </si>
-  <si>
     <t>Manufacturing</t>
   </si>
   <si>
-    <t>Research</t>
-  </si>
-  <si>
     <t>Oil and Gas</t>
   </si>
   <si>
-    <t>Pharmaceutical</t>
-  </si>
-  <si>
     <t>Real Estate</t>
   </si>
   <si>
     <t>Wellness and Fitness Services</t>
   </si>
   <si>
-    <t>Not listed</t>
-  </si>
-  <si>
     <t>Technology, Information and Internet</t>
   </si>
   <si>
-    <t>Farming|Fisheries</t>
-  </si>
-  <si>
-    <t>Education|Training and Coaching</t>
-  </si>
-  <si>
-    <t>Entertaiment|Media</t>
-  </si>
-  <si>
-    <t>Hospitals|Health Care|Medic</t>
-  </si>
-  <si>
-    <t>Human Resources|Staffing and Recruiting</t>
-  </si>
-  <si>
-    <t>Transportation|Travel|Logistics</t>
-  </si>
-  <si>
-    <t>Venture Capital|Private Equity Principal</t>
-  </si>
-  <si>
-    <t>Computer|Computer Hardware</t>
-  </si>
-  <si>
-    <t>Network Security</t>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>Advertising Services</t>
+  </si>
+  <si>
+    <t>Truck Transportation</t>
+  </si>
+  <si>
+    <t>Biotechnology Research</t>
+  </si>
+  <si>
+    <t>Computer and Network Security</t>
+  </si>
+  <si>
+    <t>Computer Hardware Manufacturing</t>
+  </si>
+  <si>
+    <t>Education Administration Programs</t>
+  </si>
+  <si>
+    <t>Entertainment Providers</t>
+  </si>
+  <si>
+    <t>Farming</t>
+  </si>
+  <si>
+    <t>Fisheries</t>
+  </si>
+  <si>
+    <t>Food and Beverage Services</t>
+  </si>
+  <si>
+    <t>Food and Beverage Manufacturing</t>
+  </si>
+  <si>
+    <t>Food Production</t>
+  </si>
+  <si>
+    <t>Fundraising</t>
+  </si>
+  <si>
+    <t>Hospitals and Health Care</t>
+  </si>
+  <si>
+    <t>Human Resources Services</t>
+  </si>
+  <si>
+    <t>Paper and Forest Product Manufacturing</t>
+  </si>
+  <si>
+    <t>Market Research</t>
+  </si>
+  <si>
+    <t>Research Services</t>
+  </si>
+  <si>
+    <t>Media Production</t>
+  </si>
+  <si>
+    <t>Medical Practices</t>
+  </si>
+  <si>
+    <t>Motor Vehicle Manufacturing</t>
+  </si>
+  <si>
+    <t>Online Audio and Video Media</t>
+  </si>
+  <si>
+    <t>Personal Care Product Manufacturing</t>
+  </si>
+  <si>
+    <t>Pharmaceutical Manufacturing</t>
+  </si>
+  <si>
+    <t>Primary and Secondary Education</t>
+  </si>
+  <si>
+    <t>Professional Training and Coaching</t>
+  </si>
+  <si>
+    <t>Textile Manufacturing</t>
+  </si>
+  <si>
+    <t>Tobacco Manufacturing</t>
+  </si>
+  <si>
+    <t>Transportation, Logistics, Supply Chain and Storage</t>
+  </si>
+  <si>
+    <t>Travel Arrangements</t>
+  </si>
+  <si>
+    <t>Venture Capital and Private Equity Principals</t>
   </si>
 </sst>
 </file>
@@ -160,7 +208,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -470,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1BDBEFA-D954-44B1-821F-80E1CB90A63C}">
-  <dimension ref="A1:A30"/>
+  <dimension ref="A1:A46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A30"/>
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -482,156 +541,239 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+      <c r="A1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
+      <c r="A3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>28</v>
+      <c r="A4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>22</v>
+      <c r="A6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>23</v>
+      <c r="A7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
+      <c r="A8" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-    </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>3</v>
+      <c r="A15" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>29</v>
+      <c r="A18" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>15</v>
+      <c r="A20" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>18</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:A46 A53:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>